--- a/Assets/釣魚參數調整紀錄.xlsx
+++ b/Assets/釣魚參數調整紀錄.xlsx
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>釣魚裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,6 +117,14 @@
   <si>
     <t>上鉤
 時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣道不同魚類的機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +479,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -489,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -503,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -538,10 +542,10 @@
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -567,7 +571,7 @@
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>28</v>
@@ -592,10 +596,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -610,7 +614,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -624,10 +628,10 @@
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -654,7 +658,7 @@
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
@@ -680,10 +684,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -707,27 +711,27 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:F14" ca="1" si="2">RANDBETWEEN(-10,10)</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -735,27 +739,27 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:C14" ca="1" si="3">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -763,27 +767,27 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>-3</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -791,78 +795,81 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>-5</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-26</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
